--- a/data/teknologi_udbredelse.xlsx
+++ b/data/teknologi_udbredelse.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aarhusuniversitet-my.sharepoint.com/personal/au277187_uni_au_dk/Documents/Documents/GitHub/AU-BCE-EE/Dalby-2025-KVIK/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="193" documentId="8_{EB04835E-B4CF-4719-A8BF-F940F175488D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DD0D9304-0699-45D3-9B51-86D87FCDB1A1}"/>
+  <xr:revisionPtr revIDLastSave="205" documentId="8_{EB04835E-B4CF-4719-A8BF-F940F175488D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{668F5418-8948-4A4E-A5BB-67009AE21AC4}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1D71E54D-B4A7-40DE-BF9C-7B1F1828542B}"/>
+    <workbookView xWindow="-22650" yWindow="3285" windowWidth="21600" windowHeight="12645" xr2:uid="{1D71E54D-B4A7-40DE-BF9C-7B1F1828542B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -510,7 +510,7 @@
   <dimension ref="A2:N24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T11" sqref="T11"/>
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -608,7 +608,7 @@
         <v>20</v>
       </c>
       <c r="M3">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -652,7 +652,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -696,7 +696,7 @@
         <v>20</v>
       </c>
       <c r="M5">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -740,7 +740,7 @@
         <v>20</v>
       </c>
       <c r="M6">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -784,7 +784,7 @@
         <v>20</v>
       </c>
       <c r="M7">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -816,19 +816,19 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="L8">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="M8">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="N8">
         <v>40</v>
@@ -872,7 +872,7 @@
         <v>20</v>
       </c>
       <c r="M9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="N10">
         <v>0</v>
